--- a/biology/Botanique/Ardisia_sonchifolia/Ardisia_sonchifolia.xlsx
+++ b/biology/Botanique/Ardisia_sonchifolia/Ardisia_sonchifolia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ardisia sonchifolia est une espèce de plantes à fleurs de la famille des Primulaceae. Originaire de l'Inde, elle est en danger d'extinction d'après l'Union internationale pour la conservation de la nature (UICN).
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,10 +551,12 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite en 1902 par le botaniste Carl Christian Mez (1866-1944). L'épithète spécifique sonchifolia signifie « à feuille de laiteron » (Sonchus)[2].
-En classification phylogénétique APG III (2009)[3], l'espèce fait partie de la famille des Primulaceae. En classification classique de Cronquist (1981)[4] et en classification phylogénétique APG II (2003)[5], le genre Ardisia était assigné à la famille des Myrsinaceae.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite en 1902 par le botaniste Carl Christian Mez (1866-1944). L'épithète spécifique sonchifolia signifie « à feuille de laiteron » (Sonchus).
+En classification phylogénétique APG III (2009), l'espèce fait partie de la famille des Primulaceae. En classification classique de Cronquist (1981) et en classification phylogénétique APG II (2003), le genre Ardisia était assigné à la famille des Myrsinaceae.
 </t>
         </is>
       </c>
@@ -569,9 +585,11 @@
           <t>Répartition géographique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est originaire de l'Inde[6].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est originaire de l'Inde.
 </t>
         </is>
       </c>
